--- a/DP2_assignment03b/doc/NffgServiceAPI.xlsx
+++ b/DP2_assignment03b/doc/NffgServiceAPI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>Resource</t>
   </si>
@@ -95,79 +95,61 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>RESET CONTENT - nffgs deleted</t>
-  </si>
-  <si>
-    <t>RESET CONTENT - nffg deleted</t>
-  </si>
-  <si>
-    <t>RESET CONTENT - policies deleted</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>OK - posted policies verification results are inside response</t>
-  </si>
-  <si>
-    <t>NOT FOUND - policies not found</t>
-  </si>
-  <si>
-    <t>nffg</t>
-  </si>
-  <si>
-    <t>CREATED - new nffgs loaded</t>
-  </si>
-  <si>
     <t>deletePolicies: boolean</t>
   </si>
   <si>
-    <t>CREATED - new policies loaded</t>
-  </si>
-  <si>
-    <t>BAD REQUEST - nffg not deleted (e.g. policies not deleted)</t>
-  </si>
-  <si>
-    <t>BAD REQUEST - policies not loaded (e.g. missing nffg)</t>
-  </si>
-  <si>
-    <t>namedEntities: nffg's names</t>
-  </si>
-  <si>
-    <t>namedEntities: policy's names</t>
-  </si>
-  <si>
-    <t>namedEntites: not loaded policy's names</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>namedEntities: not verifiable policy's names</t>
-  </si>
-  <si>
-    <t>BAD REQUEST - policies not verified (e.g. missing nffg)</t>
-  </si>
-  <si>
     <t>namedEntities: to verify policy's names</t>
   </si>
   <si>
-    <t>namedEntities: missing policy's names</t>
-  </si>
-  <si>
     <t>OK - policies verified</t>
   </si>
   <si>
     <t>policies/verifier</t>
   </si>
   <si>
-    <t>PATCH</t>
-  </si>
-  <si>
-    <t>PARTIAL CONTENT - policy updated (verification result and update time)</t>
-  </si>
-  <si>
-    <t>BAD REQUEST - policy not updated (e.g. missing nffg)</t>
+    <t>OK - policies verified (results are inside policies)</t>
+  </si>
+  <si>
+    <t>NO CONTENT- new nffgs loaded</t>
+  </si>
+  <si>
+    <t>NO CONTENT - nffgs deleted</t>
+  </si>
+  <si>
+    <t>NO CONTENT - nffg deleted</t>
+  </si>
+  <si>
+    <t>NO CONTENT - policies deleted</t>
+  </si>
+  <si>
+    <t>FORBIDDEN - nffg has policies (only if query param false)</t>
+  </si>
+  <si>
+    <t>NO CONTENT - new policies loaded</t>
+  </si>
+  <si>
+    <t>NO CONTENT - policy deleted</t>
+  </si>
+  <si>
+    <t>FORBIDDEN - policies not verified (e.g. missing policy)</t>
+  </si>
+  <si>
+    <t>FORBIDDEN - nffgs not loaded (e.g. already loaded nffg)</t>
+  </si>
+  <si>
+    <t>FORBIDDEN - policies not verified (e.g. missing nffg)</t>
+  </si>
+  <si>
+    <t>FORBIDDEN - policies not loaded (e.g. missing nffg or nodes)</t>
+  </si>
+  <si>
+    <t>pointers: nffgs loaded address</t>
+  </si>
+  <si>
+    <t>pointers: policies loaded address</t>
   </si>
 </sst>
 </file>
@@ -553,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
@@ -607,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -644,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -653,59 +635,59 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>201</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>205</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>403</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -722,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -736,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -748,10 +730,10 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,66 +743,66 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>204</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>400</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>403</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
         <v>404</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -837,45 +819,45 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
         <v>204</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>17</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>201</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -884,10 +866,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>34</v>
@@ -898,45 +880,45 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>403</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>205</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16">
-        <v>200</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>204</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,36 +935,36 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
         <v>404</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1">
-        <v>206</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -990,22 +972,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="1">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1013,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -1033,7 +1015,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1051,12 +1033,12 @@
         <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
@@ -1068,27 +1050,27 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -1097,53 +1079,30 @@
         <v>200</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="1">
-        <v>404</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
